--- a/Pokemon_Server/data/pkm_contest_effects.xlsx
+++ b/Pokemon_Server/data/pkm_contest_effects.xlsx
@@ -79,9 +79,6 @@
     <t>Startles the Pokémon that appealed before the user.</t>
   </si>
   <si>
-    <t>Startles the Pokémon that has the judge's attention.</t>
-  </si>
-  <si>
     <t>Attempts to jam all Pokémon that have appealed this turn.  If a Pokémon is in combo standby status, it is jammed 5 points instead of 1.</t>
   </si>
   <si>
@@ -91,12 +88,6 @@
     <t>If the Applause meter is empty or at one, earns one point; if two, earns three points; if three, earns four points; if four, earns six points.</t>
   </si>
   <si>
-    <t>Works well if it's the same type as the one before.</t>
-  </si>
-  <si>
-    <t>If the last Pokémon's appeal is the same type as this move, user earns six points instead of two.</t>
-  </si>
-  <si>
     <t>An appeal that excites the audience in any contest.</t>
   </si>
   <si>
@@ -148,12 +139,6 @@
     <t>Scrambles up the order of appeals on the next turn.</t>
   </si>
   <si>
-    <t>Shuffles the next turn's turn order.</t>
-  </si>
-  <si>
-    <t>Shifts the judge's attention from others.</t>
-  </si>
-  <si>
     <t>Cancels combo standby status for all Pokémon that have appealed this turn.</t>
   </si>
   <si>
@@ -169,9 +154,6 @@
     <t>Prevents the Applause Meter from rising for the rest of the turn.</t>
   </si>
   <si>
-    <t>The appeal's quality depends on its timing.</t>
-  </si>
-  <si>
     <t>Randomly earns one, two, four, or eight points.</t>
   </si>
   <si>
@@ -193,9 +175,6 @@
     <t>If user appeals last this turn, earns six points instead of two.</t>
   </si>
   <si>
-    <t>The appeal works well if the user's condition is good.</t>
-  </si>
-  <si>
     <t>If user has no stars, earns one point; if one, three points; if two, five points; if three, seven points.  This does not include the appeal point bonus the stars give.</t>
   </si>
   <si>
@@ -211,9 +190,6 @@
     <t>User will go last next turn.</t>
   </si>
   <si>
-    <t>Ups the user's condition.  Helps prevent nervousness.</t>
-  </si>
-  <si>
     <t>User gains one star.</t>
   </si>
   <si>
@@ -221,6 +197,30 @@
   </si>
   <si>
     <t>Removes all stars from all Pokémon that have appealed this turn.</t>
+  </si>
+  <si>
+    <t>Startles the Pokémon that has the judge''s attention.</t>
+  </si>
+  <si>
+    <t>Works well if it''s the same type as the one before.</t>
+  </si>
+  <si>
+    <t>If the last Pokémon''s appeal is the same type as this move, user earns six points instead of two.</t>
+  </si>
+  <si>
+    <t>Shuffles the next turn''s turn order.</t>
+  </si>
+  <si>
+    <t>Shifts the judge''s attention from others.</t>
+  </si>
+  <si>
+    <t>The appeal''s quality depends on its timing.</t>
+  </si>
+  <si>
+    <t>The appeal works well if the user''s condition is good.</t>
+  </si>
+  <si>
+    <t>Ups the user''s condition.  Helps prevent nervousness.</t>
   </si>
 </sst>
 </file>
@@ -762,10 +762,10 @@
         <v>1</v>
       </c>
       <c r="D11" t="s">
+        <v>61</v>
+      </c>
+      <c r="E11" t="s">
         <v>21</v>
-      </c>
-      <c r="E11" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -779,10 +779,10 @@
         <v>0</v>
       </c>
       <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" t="s">
         <v>23</v>
-      </c>
-      <c r="E12" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -796,10 +796,10 @@
         <v>0</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="E13" t="s">
-        <v>26</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -813,10 +813,10 @@
         <v>0</v>
       </c>
       <c r="D14" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E14" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -830,10 +830,10 @@
         <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E15" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -847,10 +847,10 @@
         <v>0</v>
       </c>
       <c r="D16" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E16" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -864,10 +864,10 @@
         <v>0</v>
       </c>
       <c r="D17" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E17" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -881,10 +881,10 @@
         <v>0</v>
       </c>
       <c r="D18" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E18" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -898,10 +898,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E19" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -915,10 +915,10 @@
         <v>0</v>
       </c>
       <c r="D20" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E20" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -932,10 +932,10 @@
         <v>0</v>
       </c>
       <c r="D21" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E21" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -949,10 +949,10 @@
         <v>0</v>
       </c>
       <c r="D22" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -966,10 +966,10 @@
         <v>0</v>
       </c>
       <c r="D23" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="E23" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -983,10 +983,10 @@
         <v>1</v>
       </c>
       <c r="D24" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E24" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -1000,10 +1000,10 @@
         <v>0</v>
       </c>
       <c r="D25" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E25" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -1017,10 +1017,10 @@
         <v>0</v>
       </c>
       <c r="D26" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="E26" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -1034,10 +1034,10 @@
         <v>0</v>
       </c>
       <c r="D27" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="E27" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -1051,10 +1051,10 @@
         <v>0</v>
       </c>
       <c r="D28" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="E28" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="D29" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="E29" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -1085,10 +1085,10 @@
         <v>0</v>
       </c>
       <c r="D30" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="E30" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -1102,10 +1102,10 @@
         <v>0</v>
       </c>
       <c r="D31" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="E31" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -1119,10 +1119,10 @@
         <v>0</v>
       </c>
       <c r="D32" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="E32" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -1136,10 +1136,10 @@
         <v>0</v>
       </c>
       <c r="D33" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E33" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -1153,10 +1153,10 @@
         <v>0</v>
       </c>
       <c r="D34" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="E34" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
